--- a/JupyterNotebooks/AveragedIntensities-SRP/O554F-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensities-SRP/O554F-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>HKL</t>
   </si>
@@ -31,6 +31,18 @@
     <t>Spiral</t>
   </si>
   <si>
+    <t>OffsetF</t>
+  </si>
+  <si>
+    <t>OffsetA</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt5degRes</t>
   </si>
   <si>
@@ -59,6 +71,9 @@
   </si>
   <si>
     <t>1Pair-A</t>
+  </si>
+  <si>
+    <t>1Pair-B</t>
   </si>
   <si>
     <t>2Pairs-A</t>
@@ -440,13 +455,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -501,8 +516,11 @@
       <c r="S1" s="1">
         <v>17</v>
       </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -510,58 +528,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="R2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="S2" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="T2" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -569,58 +590,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9818083573487032</v>
+        <v>0.9798847262247838</v>
       </c>
       <c r="D3">
-        <v>0.8102737752161383</v>
+        <v>0.8110878962536023</v>
       </c>
       <c r="E3">
-        <v>1.07036023054755</v>
+        <v>1.07157060518732</v>
       </c>
       <c r="F3">
-        <v>0.9818083573487032</v>
+        <v>0.9798847262247838</v>
       </c>
       <c r="G3">
-        <v>0.8643371757925072</v>
+        <v>0.8629394812680116</v>
       </c>
       <c r="H3">
-        <v>1.241966858789625</v>
+        <v>1.247608069164265</v>
       </c>
       <c r="I3">
-        <v>1.049402017291066</v>
+        <v>1.049697406340058</v>
       </c>
       <c r="J3">
-        <v>0.8102737752161383</v>
+        <v>0.8110878962536023</v>
       </c>
       <c r="K3">
-        <v>0.9818083573487032</v>
+        <v>0.9798847262247838</v>
       </c>
       <c r="L3">
-        <v>0.9403170028818444</v>
+        <v>1.07157060518732</v>
       </c>
       <c r="M3">
-        <v>0.9403170028818444</v>
+        <v>0.9413292507204611</v>
       </c>
       <c r="N3">
-        <v>0.9149903938520653</v>
+        <v>0.9413292507204611</v>
       </c>
       <c r="O3">
-        <v>0.9541474543707973</v>
+        <v>0.9151993275696446</v>
       </c>
       <c r="P3">
-        <v>0.9541474543707973</v>
+        <v>0.9541810758885688</v>
       </c>
       <c r="Q3">
-        <v>0.9610626801152737</v>
+        <v>0.9541810758885688</v>
       </c>
       <c r="R3">
-        <v>0.9610626801152737</v>
+        <v>0.9606069884726225</v>
       </c>
       <c r="S3">
-        <v>1.003024735830932</v>
+        <v>0.9606069884726225</v>
+      </c>
+      <c r="T3">
+        <v>1.003798030739673</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -628,58 +652,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.00740651137006</v>
+        <v>1.00727607604299</v>
       </c>
       <c r="D4">
-        <v>0.9683243106969975</v>
+        <v>0.9680577766131458</v>
       </c>
       <c r="E4">
-        <v>0.9976343101456634</v>
+        <v>0.9980001507753177</v>
       </c>
       <c r="F4">
-        <v>1.00740651137006</v>
+        <v>1.00727607604299</v>
       </c>
       <c r="G4">
-        <v>0.9777109116306868</v>
+        <v>0.9772126722837832</v>
       </c>
       <c r="H4">
-        <v>1.001650035636556</v>
+        <v>1.002782636820845</v>
       </c>
       <c r="I4">
-        <v>1.000662058627486</v>
+        <v>1.000733545842201</v>
       </c>
       <c r="J4">
-        <v>0.9683243106969975</v>
+        <v>0.9680577766131458</v>
       </c>
       <c r="K4">
-        <v>1.00740651137006</v>
+        <v>1.00727607604299</v>
       </c>
       <c r="L4">
-        <v>0.9829793104213305</v>
+        <v>0.9980001507753177</v>
       </c>
       <c r="M4">
-        <v>0.9829793104213305</v>
+        <v>0.9830289636942318</v>
       </c>
       <c r="N4">
-        <v>0.981223177491116</v>
+        <v>0.9830289636942318</v>
       </c>
       <c r="O4">
-        <v>0.9911217107375735</v>
+        <v>0.9810901998907489</v>
       </c>
       <c r="P4">
-        <v>0.9911217107375735</v>
+        <v>0.9911113344771511</v>
       </c>
       <c r="Q4">
-        <v>0.9951929108956951</v>
+        <v>0.9911113344771511</v>
       </c>
       <c r="R4">
-        <v>0.9951929108956951</v>
+        <v>0.9951525198686108</v>
       </c>
       <c r="S4">
-        <v>0.9922313563512416</v>
+        <v>0.9951525198686108</v>
+      </c>
+      <c r="T4">
+        <v>0.9923438097297136</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -687,58 +714,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.022152979545225</v>
+        <v>1.021050103964806</v>
       </c>
       <c r="D5">
-        <v>0.9449976429631622</v>
+        <v>0.9454225840723194</v>
       </c>
       <c r="E5">
-        <v>0.9996771998267359</v>
+        <v>1.000250893157238</v>
       </c>
       <c r="F5">
-        <v>1.022152979545225</v>
+        <v>1.021050103964806</v>
       </c>
       <c r="G5">
-        <v>0.9658272636807587</v>
+        <v>0.9658920455904644</v>
       </c>
       <c r="H5">
-        <v>1.007032064737887</v>
+        <v>1.007911931494126</v>
       </c>
       <c r="I5">
-        <v>1.006308474786449</v>
+        <v>1.006112644220189</v>
       </c>
       <c r="J5">
-        <v>0.9449976429631622</v>
+        <v>0.9454225840723194</v>
       </c>
       <c r="K5">
-        <v>1.022152979545225</v>
+        <v>1.021050103964806</v>
       </c>
       <c r="L5">
-        <v>0.9723374213949491</v>
+        <v>1.000250893157238</v>
       </c>
       <c r="M5">
-        <v>0.9723374213949491</v>
+        <v>0.9728367386147789</v>
       </c>
       <c r="N5">
-        <v>0.9701673688235523</v>
+        <v>0.9728367386147789</v>
       </c>
       <c r="O5">
-        <v>0.988942607445041</v>
+        <v>0.9705218409400075</v>
       </c>
       <c r="P5">
-        <v>0.988942607445041</v>
+        <v>0.9889078603981213</v>
       </c>
       <c r="Q5">
-        <v>0.9972452004700869</v>
+        <v>0.9889078603981213</v>
       </c>
       <c r="R5">
-        <v>0.9972452004700869</v>
+        <v>0.9969434212897925</v>
       </c>
       <c r="S5">
-        <v>0.9909992709233696</v>
+        <v>0.9969434212897925</v>
+      </c>
+      <c r="T5">
+        <v>0.991106700416524</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -746,58 +776,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9910427623302374</v>
+        <v>0.990468320684708</v>
       </c>
       <c r="D6">
-        <v>0.993012401871179</v>
+        <v>0.9932253695113389</v>
       </c>
       <c r="E6">
-        <v>0.9964419925012118</v>
+        <v>0.9965831350678076</v>
       </c>
       <c r="F6">
-        <v>0.9910427623302374</v>
+        <v>0.990468320684708</v>
       </c>
       <c r="G6">
-        <v>0.9890350122999793</v>
+        <v>0.989179824952611</v>
       </c>
       <c r="H6">
-        <v>1.001915371329182</v>
+        <v>1.002048539610375</v>
       </c>
       <c r="I6">
-        <v>0.9952658357326202</v>
+        <v>0.9951683923696959</v>
       </c>
       <c r="J6">
-        <v>0.993012401871179</v>
+        <v>0.9932253695113389</v>
       </c>
       <c r="K6">
-        <v>0.9910427623302374</v>
+        <v>0.990468320684708</v>
       </c>
       <c r="L6">
-        <v>0.9947271971861954</v>
+        <v>0.9965831350678076</v>
       </c>
       <c r="M6">
-        <v>0.9947271971861954</v>
+        <v>0.9949042522895732</v>
       </c>
       <c r="N6">
-        <v>0.9928298022241234</v>
+        <v>0.9949042522895732</v>
       </c>
       <c r="O6">
-        <v>0.9934990522342094</v>
+        <v>0.9929961098439192</v>
       </c>
       <c r="P6">
-        <v>0.9934990522342094</v>
+        <v>0.9934256084212848</v>
       </c>
       <c r="Q6">
-        <v>0.9928849797582164</v>
+        <v>0.9934256084212848</v>
       </c>
       <c r="R6">
-        <v>0.9928849797582164</v>
+        <v>0.9926862864871406</v>
       </c>
       <c r="S6">
-        <v>0.9944522293440682</v>
+        <v>0.9926862864871406</v>
+      </c>
+      <c r="T6">
+        <v>0.994445597032756</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -805,55 +838,306 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9950240908230861</v>
+        <v>1.167653004377072</v>
       </c>
       <c r="D7">
-        <v>0.994535812439708</v>
+        <v>0.8295123867107902</v>
       </c>
       <c r="E7">
-        <v>0.9939644677708042</v>
+        <v>0.9677126838389429</v>
       </c>
       <c r="F7">
-        <v>0.9950240908230861</v>
+        <v>1.167653004377072</v>
       </c>
       <c r="G7">
-        <v>0.9908128877873862</v>
+        <v>0.9555557080993916</v>
       </c>
       <c r="H7">
-        <v>0.9945238266094193</v>
+        <v>0.8673973002626889</v>
       </c>
       <c r="I7">
-        <v>0.9944208768167794</v>
+        <v>1.016216624741342</v>
       </c>
       <c r="J7">
-        <v>0.994535812439708</v>
+        <v>0.8295123867107902</v>
       </c>
       <c r="K7">
-        <v>0.9950240908230861</v>
+        <v>1.167653004377072</v>
       </c>
       <c r="L7">
-        <v>0.9942501401052561</v>
+        <v>0.9677126838389429</v>
       </c>
       <c r="M7">
-        <v>0.9942501401052561</v>
+        <v>0.8986125352748666</v>
       </c>
       <c r="N7">
-        <v>0.9931043893326329</v>
+        <v>0.8986125352748666</v>
       </c>
       <c r="O7">
-        <v>0.9945081236778662</v>
+        <v>0.9175935928830415</v>
       </c>
       <c r="P7">
-        <v>0.9945081236778662</v>
+        <v>0.9882926916422684</v>
       </c>
       <c r="Q7">
-        <v>0.9946371154641711</v>
+        <v>0.9882926916422684</v>
       </c>
       <c r="R7">
-        <v>0.9946371154641711</v>
+        <v>1.033132769825969</v>
       </c>
       <c r="S7">
-        <v>0.9938803270411972</v>
+        <v>1.033132769825969</v>
+      </c>
+      <c r="T7">
+        <v>0.9673412846717047</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>0.934827354066895</v>
+      </c>
+      <c r="D8">
+        <v>1.017426026166819</v>
+      </c>
+      <c r="E8">
+        <v>1.018977841563822</v>
+      </c>
+      <c r="F8">
+        <v>0.934827354066895</v>
+      </c>
+      <c r="G8">
+        <v>0.9849939989783206</v>
+      </c>
+      <c r="H8">
+        <v>1.082794235789755</v>
+      </c>
+      <c r="I8">
+        <v>0.9917557870826742</v>
+      </c>
+      <c r="J8">
+        <v>1.017426026166819</v>
+      </c>
+      <c r="K8">
+        <v>0.934827354066895</v>
+      </c>
+      <c r="L8">
+        <v>1.018977841563822</v>
+      </c>
+      <c r="M8">
+        <v>1.01820193386532</v>
+      </c>
+      <c r="N8">
+        <v>1.01820193386532</v>
+      </c>
+      <c r="O8">
+        <v>1.00713262223632</v>
+      </c>
+      <c r="P8">
+        <v>0.9904104072658452</v>
+      </c>
+      <c r="Q8">
+        <v>0.9904104072658452</v>
+      </c>
+      <c r="R8">
+        <v>0.9765146439661077</v>
+      </c>
+      <c r="S8">
+        <v>0.9765146439661077</v>
+      </c>
+      <c r="T8">
+        <v>1.005129207274714</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>0.76</v>
+      </c>
+      <c r="D9">
+        <v>0.84</v>
+      </c>
+      <c r="E9">
+        <v>1.11</v>
+      </c>
+      <c r="F9">
+        <v>0.76</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0.98</v>
+      </c>
+      <c r="I9">
+        <v>1.03</v>
+      </c>
+      <c r="J9">
+        <v>0.84</v>
+      </c>
+      <c r="K9">
+        <v>0.76</v>
+      </c>
+      <c r="L9">
+        <v>1.11</v>
+      </c>
+      <c r="M9">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="N9">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.9833333333333334</v>
+      </c>
+      <c r="P9">
+        <v>0.9033333333333333</v>
+      </c>
+      <c r="Q9">
+        <v>0.9033333333333333</v>
+      </c>
+      <c r="R9">
+        <v>0.8674999999999999</v>
+      </c>
+      <c r="S9">
+        <v>0.8674999999999999</v>
+      </c>
+      <c r="T9">
+        <v>0.9533333333333333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>1.97</v>
+      </c>
+      <c r="D10">
+        <v>0.22</v>
+      </c>
+      <c r="E10">
+        <v>0.84</v>
+      </c>
+      <c r="F10">
+        <v>1.97</v>
+      </c>
+      <c r="G10">
+        <v>0.63</v>
+      </c>
+      <c r="H10">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I10">
+        <v>1.14</v>
+      </c>
+      <c r="J10">
+        <v>0.22</v>
+      </c>
+      <c r="K10">
+        <v>1.97</v>
+      </c>
+      <c r="L10">
+        <v>0.84</v>
+      </c>
+      <c r="M10">
+        <v>0.53</v>
+      </c>
+      <c r="N10">
+        <v>0.53</v>
+      </c>
+      <c r="O10">
+        <v>0.5633333333333334</v>
+      </c>
+      <c r="P10">
+        <v>1.01</v>
+      </c>
+      <c r="Q10">
+        <v>1.01</v>
+      </c>
+      <c r="R10">
+        <v>1.25</v>
+      </c>
+      <c r="S10">
+        <v>1.25</v>
+      </c>
+      <c r="T10">
+        <v>0.9149999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>0.9885654459244941</v>
+      </c>
+      <c r="D11">
+        <v>0.9962113781826234</v>
+      </c>
+      <c r="E11">
+        <v>0.9964045242353363</v>
+      </c>
+      <c r="F11">
+        <v>0.9885654459244941</v>
+      </c>
+      <c r="G11">
+        <v>0.9911349708585977</v>
+      </c>
+      <c r="H11">
+        <v>0.9994014904357034</v>
+      </c>
+      <c r="I11">
+        <v>0.9943694622285203</v>
+      </c>
+      <c r="J11">
+        <v>0.9962113781826234</v>
+      </c>
+      <c r="K11">
+        <v>0.9885654459244941</v>
+      </c>
+      <c r="L11">
+        <v>0.9964045242353363</v>
+      </c>
+      <c r="M11">
+        <v>0.9963079512089799</v>
+      </c>
+      <c r="N11">
+        <v>0.9963079512089799</v>
+      </c>
+      <c r="O11">
+        <v>0.9945836244255192</v>
+      </c>
+      <c r="P11">
+        <v>0.9937271161141513</v>
+      </c>
+      <c r="Q11">
+        <v>0.9937271161141513</v>
+      </c>
+      <c r="R11">
+        <v>0.992436698566737</v>
+      </c>
+      <c r="S11">
+        <v>0.992436698566737</v>
+      </c>
+      <c r="T11">
+        <v>0.9943478786442125</v>
       </c>
     </row>
   </sheetData>
